--- a/branches/update-emr-bundle-uml/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-emr-bundle-uml/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:55:13+00:00</t>
+    <t>2023-03-03T15:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,7 +635,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/identifier/nid</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/nid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -751,7 +751,7 @@
     <t>Patient.identifier:MN.system</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/identifier/mn</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/mn</t>
   </si>
   <si>
     <t>Patient.identifier:MN.value</t>

--- a/branches/update-emr-bundle-uml/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-emr-bundle-uml/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:04:29+00:00</t>
+    <t>2023-03-03T15:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle-uml/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-emr-bundle-uml/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:12:51+00:00</t>
+    <t>2023-03-03T15:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
